--- a/StringTable.xlsx
+++ b/StringTable.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fork\Project-S_ExcelTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CF399F-B8B8-43E4-988B-915DFB070281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD7DFD1-05E7-42C6-84B4-2A508ABE92E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23340" yWindow="2865" windowWidth="13950" windowHeight="15435" xr2:uid="{AAB4CE34-E4E0-4D77-B120-BA729BD103AD}"/>
   </bookViews>
   <sheets>
-    <sheet name="String" sheetId="1" r:id="rId1"/>
+    <sheet name="StringTable" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,15 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>Index</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>EngString</t>
-  </si>
-  <si>
     <t>안녕하세요!</t>
   </si>
   <si>
@@ -72,6 +63,15 @@
   </si>
   <si>
     <t>Kaya</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>engString</t>
+  </si>
+  <si>
+    <t>korString</t>
   </si>
 </sst>
 </file>
@@ -438,7 +438,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -450,13 +450,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -464,10 +464,10 @@
         <v>10101</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -475,10 +475,10 @@
         <v>10102</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -486,10 +486,10 @@
         <v>10103</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -497,10 +497,10 @@
         <v>12010001</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -508,10 +508,10 @@
         <v>12020001</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
